--- a/results/mp/tinybert/corona/confidence/210/0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,88 +46,112 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -485,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +520,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +596,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,31 +628,31 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7402597402597403</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
+        <v>178</v>
+      </c>
+      <c r="D4">
+        <v>178</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>114</v>
-      </c>
-      <c r="D4">
-        <v>114</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>40</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
         <v>31</v>
@@ -646,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3133047210300429</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8823529411764706</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2674418604651163</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>63</v>
+        <v>426</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -754,13 +778,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +804,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +830,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8235294117647058</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +856,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8214285714285714</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +882,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +908,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7586206896551724</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +934,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7241379310344828</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +960,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6923076923076923</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +986,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.68</v>
+        <v>0.6875</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +1012,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6575342465753424</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1038,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6538461538461539</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1064,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.64</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1090,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1116,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5757575757575758</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,10 +1145,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1168,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5142857142857142</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1194,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5070422535211268</v>
+        <v>0.4934725848563969</v>
       </c>
       <c r="L23">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="M23">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>105</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1220,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4883720930232558</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>66</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1246,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4791666666666667</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1272,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4666666666666667</v>
+        <v>0.4101694915254237</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,25 +1298,233 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4239130434782609</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>27</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M27">
-        <v>39</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>53</v>
+      <c r="K29">
+        <v>0.2845188284518829</v>
+      </c>
+      <c r="L29">
+        <v>68</v>
+      </c>
+      <c r="M29">
+        <v>68</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.0275</v>
+      </c>
+      <c r="L30">
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>33</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.01161048689138577</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+      <c r="N31">
+        <v>0.91</v>
+      </c>
+      <c r="O31">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.01145662847790507</v>
+      </c>
+      <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>0.97</v>
+      </c>
+      <c r="O32">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.006700554528650647</v>
+      </c>
+      <c r="L33">
+        <v>29</v>
+      </c>
+      <c r="M33">
+        <v>29</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>0.006005424254165052</v>
+      </c>
+      <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>34</v>
+      </c>
+      <c r="N34">
+        <v>0.91</v>
+      </c>
+      <c r="O34">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>0.005604483586869495</v>
+      </c>
+      <c r="L35">
+        <v>28</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>4968</v>
       </c>
     </row>
   </sheetData>
